--- a/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/idtOligoOrder.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/idtOligoOrder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,42 @@
   </si>
   <si>
     <t>GCCCTCCCACACATAACCAG</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd</t>
+  </si>
+  <si>
+    <t>TGTGTGCATTATCCTCTGAAGTTT</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev</t>
+  </si>
+  <si>
+    <t>CGGTGAACTCATATCTGGCAT</t>
+  </si>
+  <si>
+    <t>peak3191Val_fwd</t>
+  </si>
+  <si>
+    <t>ACTTGCAGCACTAATACAACCA</t>
+  </si>
+  <si>
+    <t>peak3191Val_rev</t>
+  </si>
+  <si>
+    <t>GTGCCTGCCCTAAAACCAAG</t>
+  </si>
+  <si>
+    <t>m13rev</t>
+  </si>
+  <si>
+    <t>caggaaacagctatgac</t>
+  </si>
+  <si>
+    <t>m13fwd</t>
+  </si>
+  <si>
+    <t>gtaaaacgacggccagt</t>
   </si>
 </sst>
 </file>
@@ -513,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,6 +927,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
